--- a/biology/Botanique/Sauvagesia_erecta/Sauvagesia_erecta.xlsx
+++ b/biology/Botanique/Sauvagesia_erecta/Sauvagesia_erecta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauvagesia erecta est une espèce de plantes à fleurs de la famille des Ochnaceae. C'est un arbrisseau.
-Sauvagesia erecta est connu en Guyane sous les noms de Herbe St Martin, Zerb Saint Martin (Créole), Erva São Martinho (Portugais)[3], Wɨla pili (Wayãpi), Tarub tiβarabuyene (Palikur), Erva-de-Sao-Martinho (Portugais)[4], Adima (Kali'na)[5].
-Aux Antilles, on l'appelle Thé montagne, Thym manioc, Herbe de Saint-Martin, Thé savane, ou en créole Té montann, Té savann, Ten mannyok, Ti mannyok, Zeb a té, Ti kannel, Zeb sen Marten[6].
+Sauvagesia erecta est connu en Guyane sous les noms de Herbe St Martin, Zerb Saint Martin (Créole), Erva São Martinho (Portugais), Wɨla pili (Wayãpi), Tarub tiβarabuyene (Palikur), Erva-de-Sao-Martinho (Portugais), Adima (Kali'na).
+Aux Antilles, on l'appelle Thé montagne, Thym manioc, Herbe de Saint-Martin, Thé savane, ou en créole Té montann, Té savann, Ten mannyok, Ti mannyok, Zeb a té, Ti kannel, Zeb sen Marten.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sauvagesia erecta est une plante herbacée ou un sous-arbrisseau vivace, généralement dressée, haute de 9 à 70 cm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauvagesia erecta est une plante herbacée ou un sous-arbrisseau vivace, généralement dressée, haute de 9 à 70 cm.
 Les stipules longs de 5 à 8 mm, avec des cils simples le long des marges.
 Les feuilles ont le limbe de forme étroitement elliptique, mesurant 12-30 × 3-10 mm.
 Les feuilles sont de forme lancéolées ou elliptiques ou oblongues-lancéolées aiguës, en coin à la base, ne dépassant pas 4 cm sur 1 cm, sessiles ou presque, stipules frangées de longs poils roussâtres 
@@ -528,9 +542,44 @@
 Les étamines sont fertiles longues de 2-3 mm.
 L'ovaire est de forme subconique.
 Le style est long de 4 mm.
-Les fruits sont des capsules, de forme ovoïde aiguë, à peine plus longue que le calice (5 à 6 mm)[7],[3],[8].
-Taxons infra-spécifiques
-Sauvagesia erecta comporte 3 taxons infra-spécifiques[9] :
+Les fruits sont des capsules, de forme ovoïde aiguë, à peine plus longue que le calice (5 à 6 mm).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sauvagesia_erecta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvagesia_erecta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauvagesia erecta comporte 3 taxons infra-spécifiques :
 Sauvagesia erecta subsp. brownei (Planch.) Sastre
 Sauvagesia erecta subsp. erecta
 Sauvagesia erecta var. coriacea Sastre</t>
